--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -32,7 +32,7 @@
     <t>Timestamp:</t>
   </si>
   <si>
-    <t>2021/02/14 06:54</t>
+    <t>2021/02/14 12:26</t>
   </si>
   <si>
     <t>Q1</t>
